--- a/data/06_administrative_systems.xlsx
+++ b/data/06_administrative_systems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sourceDB_AUSystemsDicti" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Q_list" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Q_statments" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Q_statements" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="new_Q" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Globals" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="P_list" sheetId="6" state="visible" r:id="rId7"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="646">
   <si>
     <t xml:space="preserve">Identifiers</t>
   </si>
@@ -869,6 +869,12 @@
     <t xml:space="preserve">Instance of</t>
   </si>
   <si>
+    <t xml:space="preserve">Description_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rzeczpospolita Polska (1918-1939)</t>
   </si>
   <si>
@@ -1199,10 +1205,10 @@
     <t xml:space="preserve">146-148</t>
   </si>
   <si>
-    <t xml:space="preserve">Ustrój administracji ogólnej na Wileńszczyźnie w okresie międzywojennym (Gałędek M.)., Ustrój administracji ogólnej na Wileńszczyźnie w okresie międzywojennym, Gdańsk 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proces ujednolicania ustroju samorządu terytorialnego w II Rzeczypospolitej (Dziobek-Romański J.)., Proces ujednolicania ustroju samorządu terytorialnego w II Rzeczypospolitej, „Roczniki Nauk Prawnych“, 22 (2), 2012, s. 149–177</t>
+    <t xml:space="preserve">Ustrój administracji ogólnej na Wileńszczyźnie w okresie międzywojennym (Gałędek M.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proces ujednolicania ustroju samorządu terytorialnego w II Rzeczypospolitej (Dziobek-Romański J.)</t>
   </si>
   <si>
     <t xml:space="preserve">149–177</t>
@@ -1220,13 +1226,13 @@
     <t xml:space="preserve">Niedostatki unifikacji administracji ogólnej : doktryna i praktycy o koniecznych uzupełnieniach rozporządzenia Prezydenta RP z dnia 19 stycznia 1928 r. (Tarnowska A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Województwo w Drugiej Rzeczypospolitej : (z dziejów podziałów terytorialnych w latach 1919-1939) (Kallas M.)., Województwo w Drugiej Rzeczypospolitej: z dziejów podziałów terytorialnych w latach 1919-1939, „Acta Universitatis Nicolai Copernici. Nauki Humanistyczno-Społeczne. Historia“, 30, 1997, s. 145–161</t>
+    <t xml:space="preserve">Województwo w Drugiej Rzeczypospolitej : (z dziejów podziałów terytorialnych w latach 1919-1939) (Kallas M.)</t>
   </si>
   <si>
     <t xml:space="preserve">145–161</t>
   </si>
   <si>
-    <t xml:space="preserve">Próba zreformowania podziału terytorialnego Drugiej Rzeczypospolitej w latach 1928-1933 (Lewandowska-Malec I.)., Próba zreformowania podziału terytorialnego Drugiej Rzeczypospolitej w latach 1928-1933, „Czasopismo Prawno-Historyczne“, 51 (1-2), 1999, s. 301–317</t>
+    <t xml:space="preserve">Próba zreformowania podziału terytorialnego Drugiej Rzeczypospolitej w latach 1928-1933 (Lewandowska-Malec I.)</t>
   </si>
   <si>
     <t xml:space="preserve">301–317</t>
@@ -1433,417 +1439,411 @@
     <t xml:space="preserve">Struktura administracyjna i własnościowa Pomorza Gdańskiego pod rządami zakonu krzyżackiego w latach 1309-1454 (Grzegorz M.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dzieje zakonu krzyżackiego w Prusach: gospodarka, społeczeństwo, państwo, ideologia (Biskup M. et al.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakon krzyżacki w Prusach i Inflantach : podziały administracyjne i kościelne w XIII-XVI wieku (Arszyński M. et al.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Kirche im Deutschordensstaat in Preussen (1243-1525) : Organisation, Ausstattung, Rechtsprechung, Geistlichkeit, Gläubige (Radzimiński A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biskupstwa państwa krzyżackiego w Prusach XIII-XV wieku : z dziejów organizacji kościelnej i duchowieństwa (Radzimiński A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legal basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstytucja Rzeczypospolitej Polskie z 17 marca 1921 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozporządzenie Prezydenta Rzeczypospolitej z dnia 19 stycznia 1928 r. o organizacji i zakresie działania władz administracji ogólnej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ustawa z dnia 23 marca 1933 r. o częściowej zmianie ustroju samorządu terytorjalnego. (tzw. ustawa scaleniowa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verordnung wegen verbesserter Einrichtung der Provinzial- Polizei- und Finanzbehörden vom 26. Dezember 1808 (GS S. 481)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Städteordnung 1808, 1831, 1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verordnung wegen verbesserter Einrichtung der Provinzial-Behörden vom 30. April 1815 (GS S. 85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesetz über Verpflichtung zur Armenpflege vom 31. Dez. 1842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreisordnung für die östlichen 6 Provinzen vom 13. Dez. 1872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tädteordnung 1808, 1831, 1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dekret Piotra I z dnia 18 grudnia 1708 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukaz Piotra I z dnia 29 maja 1719 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekret Katarzyny II z 7 listopada 1775 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekret Pawa I z 12 grudnia 1796 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1861: reforma uwłaszczeniowa i wprowadzenie gmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akt unii lubelskiej z dnia 1 lipca 1569 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstytucja 3 maja 1791 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edykt z 11 września 1772 r. o utworzeniu guberium we Lwowie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listopad-grudzień 1773 r: podział na 6 cyrkułów (Kreis) oraz 59 okręgów (Kreisdistricten)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekret z 22 marca 1782 r. o zniesieniu okręgów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hofordnung 1537, Kanzleiordnungen 1537, 1562, 1577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geheime-Rats-Ordnung 13.12.1604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przywilej chełmiński 1233, statuty zakonu, akt inkorporacji ziem pruskich z 6 marca 1454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traktat toruński z 1466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traktat krakowski z 1525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1596, akt unii brzeskiej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1720, synod w Zamościu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ustawa z 1849 r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 listopada 1936, dekret Prezydenta RP: "co spowodowały zmiany w tytulaturze i nazewnictwie poszczególnych zwierzchników i ich jednostek kościelnych" (Kłaczkow, s. 42), trudno więc to uznać za zmianę ustroju kościoła ewangelickiego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1849-1850: reforma ustrojowa (kraj koronny, namiestnictwa, wprowadzenie powiatów)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1855-1856: reforma administracyjna (zniesienie kompetencji dominiów i magistratów na rzecz ustroju gminnego i powiatów)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reformy ustrojowe XIV w.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statuty wiślicko-piotrowskie (1356-1362 r.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jewish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin (Roman Catholic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniate (Greek-Catholic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical Augsburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Brethren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical Reformed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenian rite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purl identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wypełnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etykieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Radzimiński, Biskupstwa państwa krzyżackiego w Prusach XIII-XV wieku, Toruń 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Radzimiński, Die Kirche im Deutschordensstaat in Preussen (1243-1525). Organisation, Ausstattung, Rechtsprechung, Geistlichkeit, Gläubige, Toruń 2014 (Seria: Prussia sacra, t. 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Wachowiak, A. Kamieński, Dzieje Brandenburgii-Prus. Na progu czasów nowożytnych (1500-1701), Poznań 2001, s. 250-257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bardach J., Bartel W.M., Historia państwa i prawa Polski. T. 3, Od rozbiorów do uwłaszczenia, Warszawa 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartel W.M., Ustrój i prawo Wolnego Miasta Krakowa: (1815-1846), Kraków 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barwiński E., Pierwsze podziały administracyjne Galicji, Lwów 1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Malec, J. Malec, Historia administracji nowożytnej, Kraków 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 859-865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 889-891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 892-941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 2-3, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dziobek-Romański J., Proces ujednolicania ustroju samorządu terytorialnego w II Rzeczypospolitej, „Roczniki Nauk Prawnych“, 22 (2), 2012, s. 149–177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eberhardt P., Zmiany podziałów administracyjnych w Cesarstwie Rosyjskim, w Związku Radzieckim oraz w Federacji Rosyjskiej, „Studia z Dziejów Rosji i Europy Środkowo-Wschodniej“, 45, 2010, s. 239–257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felczak W., Historia Węgier, Wrocław 1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gajsler J.F., Dzieje Węgier w zarysie, t. 2-3, Warszawa 1900-1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gałędek M., Ustrój administracji ogólnej na Wileńszczyźnie w okresie międzywojennym, Gdańsk 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Górak A., Latawiec K., Kancelaria organów władzy w Galicji: Wybór źródeł, Lublin 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grodziski S., Historia ustroju społeczno-politycznego Galicji 1772-1848, Wrocław 1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grzybowski K., Galicja 1848-1914: Historia ustroju politycznego na tle historii ustroju Austrii, Wrocław 1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grzybowski K., Historia państwa i prawa Polski. T. 4, Od uwłaszczenia do odrodzenia państwa, Warszawa 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbuch der Preußischen Geschichte, hrsg. v. O. Buesch, Bd. II, Das 19. Jh. und Große Themen der Geschichte Preußens, Berlin -New York, 1992, s. 106-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heinrich G., Henning F.W., Jeserich K. G. A., Verwaltungsgeschichte Ostdeutschlands 1815-1945. Organisation-Aufgaben-Leistungen der Verwaltung. Stuttgart 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia państwa i prawa Polski do roku 1795, t. 1-2, pod red. J. Bardacha, Warszawa 1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia Pomorza, t. I do roku 1466, cz. II. Pomorze Zachodnie w dobie rozwijającego się feudalizmu (1124-14640, red. G. Labuda, Poznań 1969, s. 140-146, 226-235, 298-306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huber, Deutsche Verfassungsgeschichte, t. 1- 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Bardach, B. Leśniodorski, M. Pietrzak, Historia ustroju i prawa polskiego, Warszawa 2011 (wyd. 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Wąsicki, Ziemie polskie pod zaborem pruskim. Prusy Południowe 1793-1806. Studium historycznoprawne, Wrocław 1957, s. 114-115, 127-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Orzechowski, Historia ustroju Śląska 1202-1740, Wrocław 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kallas M., Historia ustroju Polski X-XX w. Warszawa 2003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kallas M., Województwo w Drugiej Rzeczypospolitej: z dziejów podziałów terytorialnych w latach 1919-1939, „Acta Universitatis Nicolai Copernici. Nauki Humanistyczno-Społeczne. Historia“, 30, 1997, s. 145–161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewandowska-Malec I., Próba zreformowania podziału terytorialnego Drugiej Rzeczypospolitej w latach 1928-1933, „Czasopismo Prawno-Historyczne“, 51 (1-2), 1999, s. 301–317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Bär, Die Behördenverfassung in Westpreußen seit der Ordenszeit, Danzig 1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Biskup, i in., Państwo zakonu krzyżackiego w Prusach. Władza i społeczeństwo, Warszawa 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Grzegorz, Struktura administracyjna i własnościowa Pomorza Gdańskiego pod rządami zakonu krzyżackiego w latach 1309-1454, Warszawa-Poznań-Toruń 1987</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marian Biskup, Gerard Labuda, Dzieje zakonu krzyżackiego w Prusach. Gospodarka-Społeczeństwo-Pańswo-Ideologia, Gdańsk 1986</t>
   </si>
   <si>
-    <t xml:space="preserve">Dzieje zakonu krzyżackiego w Prusach: gospodarka, społeczeństwo, państwo, ideologia (Biskup M. et al.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zakon krzyżacki w Prusach i Inflantach : podziały administracyjne i kościelne w XIII-XVI wieku (Arszyński M. et al.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Kirche im Deutschordensstaat in Preussen (1243-1525) : Organisation, Ausstattung, Rechtsprechung, Geistlichkeit, Gläubige (Radzimiński A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biskupstwa państwa krzyżackiego w Prusach XIII-XV wieku : z dziejów organizacji kościelnej i duchowieństwa (Radzimiński A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legal basis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstytucja Rzeczypospolitej Polskie z 17 marca 1921 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rozporządzenie Prezydenta Rzeczypospolitej z dnia 19 stycznia 1928 r. o organizacji i zakresie działania władz administracji ogólnej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ustawa z dnia 23 marca 1933 r. o częściowej zmianie ustroju samorządu terytorjalnego. (tzw. ustawa scaleniowa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verordnung wegen verbesserter Einrichtung der Provinzial- Polizei- und Finanzbehörden vom 26. Dezember 1808 (GS S. 481)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Städteordnung 1808, 1831, 1853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verordnung wegen verbesserter Einrichtung der Provinzial-Behörden vom 30. April 1815 (GS S. 85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesetz über Verpflichtung zur Armenpflege vom 31. Dez. 1842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreisordnung für die östlichen 6 Provinzen vom 13. Dez. 1872.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tädteordnung 1808, 1831, 1853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreisordnung für die östlichen 6 Provinzen vom 13. Dez. 1872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dekret Piotra I z dnia 18 grudnia 1708 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukaz Piotra I z dnia 29 maja 1719 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dekret Katarzyny II z 7 listopada 1775 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dekret Pawa I z 12 grudnia 1796 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1861: reforma uwłaszczeniowa i wprowadzenie gmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akt unii lubelskiej z dnia 1 lipca 1569 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstytucja 3 maja 1791 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edykt z 11 września 1772 r. o utworzeniu guberium we Lwowie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listopad-grudzień 1773 r: podział na 6 cyrkułów (Kreis) oraz 59 okręgów (Kreisdistricten)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dekret z 22 marca 1782 r. o zniesieniu okręgów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hofordnung 1537, Kanzleiordnungen 1537, 1562, 1577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geheime-Rats-Ordnung 13.12.1604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przywilej chełmiński 1233, statuty zakonu, akt inkorporacji ziem pruskich z 6 marca 1454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traktat toruński z 1466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traktat krakowski z 1525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1596, akt unii brzeskiej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1720, synod w Zamościu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ustawa z 1849 r.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 listopada 1936, dekret Prezydenta RP: "co spowodowały zmiany w tytulaturze i nazewnictwie poszczególnych zwierzchników i ich jednostek kościelnych" (Kłaczkow, s. 42), trudno więc to uznać za zmianę ustroju kościoła ewangelickiego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1849-1850: reforma ustrojowa (kraj koronny, namiestnictwa, wprowadzenie powiatów)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855-1856: reforma administracyjna (zniesienie kompetencji dominiów i magistratów na rzecz ustroju gminnego i powiatów)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reformy ustrojowe XIV w.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statuty wiślicko-piotrowskie (1356-1362 r.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115-243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jewish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin (Roman Catholic) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniate (Greek-Catholic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical Augsburg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Brethren </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical Reformed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenian rite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purl identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">różna  data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wypełnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etykieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Radzimiński, Biskupstwa państwa krzyżackiego w Prusach XIII-XV wieku, Toruń 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Radzimiński, Die Kirche im Deutschordensstaat in Preussen (1243-1525). Organisation, Ausstattung, Rechtsprechung, Geistlichkeit, Gläubige, Toruń 2014 (Seria: Prussia sacra, t. 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Wachowiak, A. Kamieński, Dzieje Brandenburgii-Prus. Na progu czasów nowożytnych (1500-1701), Poznań 2001, s. 250-257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bardach J., Bartel W.M., Historia państwa i prawa Polski. T. 3, Od rozbiorów do uwłaszczenia, Warszawa 1981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartel W.M., Ustrój i prawo Wolnego Miasta Krakowa: (1815-1846), Kraków 1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barwiński E., Pierwsze podziały administracyjne Galicji, Lwów 1935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Malec, J. Malec, Historia administracji nowożytnej, Kraków 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 859-865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 889-891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 1: Vom Spätmittelalter bis zum Ende des Reiches, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983, s. 892-941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Verwaltungsgeschichte, t. 2-3, red. K. G. A. Jeserich, H. Pohl, G. H. v. Unruh, Stuttgart 1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dziobek-Romański J., Proces ujednolicania ustroju samorządu terytorialnego w II Rzeczypospolitej, „Roczniki Nauk Prawnych“, 22 (2), 2012, s. 149–177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eberhardt P., Zmiany podziałów administracyjnych w Cesarstwie Rosyjskim, w Związku Radzieckim oraz w Federacji Rosyjskiej, „Studia z Dziejów Rosji i Europy Środkowo-Wschodniej“, 45, 2010, s. 239–257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felczak W., Historia Węgier, Wrocław 1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gajsler J.F., Dzieje Węgier w zarysie, t. 2-3, Warszawa 1900-1902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gałędek M., Ustrój administracji ogólnej na Wileńszczyźnie w okresie międzywojennym, Gdańsk 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Górak A., Latawiec K., Kancelaria organów władzy w Galicji: Wybór źródeł, Lublin 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grodziski S., Historia ustroju społeczno-politycznego Galicji 1772-1848, Wrocław 1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grzybowski K., Galicja 1848-1914: Historia ustroju politycznego na tle historii ustroju Austrii, Wrocław 1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grzybowski K., Historia państwa i prawa Polski. T. 4, Od uwłaszczenia do odrodzenia państwa, Warszawa 1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbuch der Preußischen Geschichte, hrsg. v. O. Buesch, Bd. II, Das 19. Jh. und Große Themen der Geschichte Preußens, Berlin -New York, 1992, s. 106-109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heinrich G., Henning F.W., Jeserich K. G. A., Verwaltungsgeschichte Ostdeutschlands 1815-1945. Organisation-Aufgaben-Leistungen der Verwaltung. Stuttgart 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia państwa i prawa Polski do roku 1795, t. 1-2, pod red. J. Bardacha, Warszawa 1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia Pomorza, t. I do roku 1466, cz. II. Pomorze Zachodnie w dobie rozwijającego się feudalizmu (1124-14640, red. G. Labuda, Poznań 1969, s. 140-146, 226-235, 298-306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huber, Deutsche Verfassungsgeschichte, t. 1- 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Bardach, B. Leśniodorski, M. Pietrzak, Historia ustroju i prawa polskiego, Warszawa 2011 (wyd. 6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Wąsicki, Ziemie polskie pod zaborem pruskim. Prusy Południowe 1793-1806. Studium historycznoprawne, Wrocław 1957, s. 114-115, 127-131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K. Orzechowski, Historia ustroju Śląska 1202-1740, Wrocław 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kallas M., Historia ustroju Polski X-XX w. Warszawa 2003.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kallas M., Województwo w Drugiej Rzeczypospolitej: z dziejów podziałów terytorialnych w latach 1919-1939, „Acta Universitatis Nicolai Copernici. Nauki Humanistyczno-Społeczne. Historia“, 30, 1997, s. 145–161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewandowska-Malec I., Próba zreformowania podziału terytorialnego Drugiej Rzeczypospolitej w latach 1928-1933, „Czasopismo Prawno-Historyczne“, 51 (1-2), 1999, s. 301–317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Bär, Die Behördenverfassung in Westpreußen seit der Ordenszeit, Danzig 1912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Biskup, i in., Państwo zakonu krzyżackiego w Prusach. Władza i społeczeństwo, Warszawa 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Grzegorz, Struktura administracyjna i własnościowa Pomorza Gdańskiego pod rządami zakonu krzyżackiego w latach 1309-1454, Warszawa-Poznań-Toruń 1987</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mark R.A., Galizien unter österreichischer Herrschaft: Verwaltung - Kirche - Bevölkerung, Marburg 1994 (Historische und Landeskundliche Ostmitteleuropa-Studien, 13)</t>
   </si>
   <si>
@@ -1974,12 +1974,6 @@
   </si>
   <si>
     <t xml:space="preserve">Datatype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiki_id</t>
   </si>
   <si>
     <t xml:space="preserve">Inverse_property</t>
@@ -1994,7 +1988,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2046,6 +2040,12 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -2149,7 +2149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,12 +2230,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2246,7 +2246,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2262,11 +2266,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2371,15 +2375,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A1:C1 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.71"/>
@@ -5567,15 +5571,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="1" sqref="A1:C1 A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.86"/>
@@ -5606,8 +5610,12 @@
       <c r="F1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -5630,10 +5638,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E3</f>
@@ -5648,15 +5656,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="n">
         <f aca="false">sourceDB_AUSystemsDicti!E4</f>
@@ -5671,15 +5679,15 @@
         <v>1600-12-31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E5</f>
@@ -5694,15 +5702,15 @@
         <v>2016-12-31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E6</f>
@@ -5717,15 +5725,15 @@
         <v>1945-12-31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E7</f>
@@ -5740,15 +5748,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E8</f>
@@ -5763,15 +5771,15 @@
         <v>1945-12-31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E9</f>
@@ -5786,15 +5794,15 @@
         <v>1919-12-31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E10</f>
@@ -5809,15 +5817,15 @@
         <v>1917-12-31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E11</f>
@@ -5832,15 +5840,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E12</f>
@@ -5855,15 +5863,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E13</f>
@@ -5878,15 +5886,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E14</f>
@@ -5901,15 +5909,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E15</f>
@@ -5924,15 +5932,15 @@
         <v>1814-12-31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E16</f>
@@ -5947,15 +5955,15 @@
         <v>1795-12-31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E17</f>
@@ -5970,15 +5978,15 @@
         <v>1805-12-31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E18</f>
@@ -5993,15 +6001,15 @@
         <v>1848-12-31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E19</f>
@@ -6016,15 +6024,15 @@
         <v>1848-12-31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E20</f>
@@ -6039,15 +6047,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E21</f>
@@ -6062,15 +6070,15 @@
         <v>1742-12-31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E22</f>
@@ -6085,15 +6093,15 @@
         <v>1648-12-31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E23</f>
@@ -6108,15 +6116,15 @@
         <v>1713-12-31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E24</f>
@@ -6131,15 +6139,15 @@
         <v>1790-12-31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E25</f>
@@ -6154,15 +6162,15 @@
         <v>1550-12-31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E26</f>
@@ -6177,15 +6185,15 @@
         <v>1370-12-31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E27</f>
@@ -6200,15 +6208,15 @@
         <v>1525-12-31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E28</f>
@@ -6223,15 +6231,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E29</f>
@@ -6246,15 +6254,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E30</f>
@@ -6269,15 +6277,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E31</f>
@@ -6292,15 +6300,15 @@
         <v>1795-12-31</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E32</f>
@@ -6315,15 +6323,15 @@
         <v>1645-12-31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E33</f>
@@ -6338,15 +6346,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E34</f>
@@ -6361,15 +6369,15 @@
         <v>1817-12-31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E35</f>
@@ -6384,15 +6392,15 @@
         <v>1817-12-31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E36</f>
@@ -6407,15 +6415,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E37</f>
@@ -6430,15 +6438,15 @@
         <v>1849-12-31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E38</f>
@@ -6453,15 +6461,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E39</f>
@@ -6476,15 +6484,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E40</f>
@@ -6499,15 +6507,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E41</f>
@@ -6522,15 +6530,15 @@
         <v>1764-12-31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E42</f>
@@ -6545,15 +6553,15 @@
         <v>1569-12-31</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E43</f>
@@ -6568,15 +6576,15 @@
         <v>1866-12-31</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E44</f>
@@ -6591,15 +6599,15 @@
         <v>1814-12-31</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E45</f>
@@ -6614,15 +6622,15 @@
         <v>1842-12-31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E46</f>
@@ -6637,15 +6645,15 @@
         <v>1568-12-31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E47</f>
@@ -6660,15 +6668,15 @@
         <v>1701-12-31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E48</f>
@@ -6683,15 +6691,15 @@
         <v>1939-12-31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E49</f>
@@ -6706,15 +6714,15 @@
         <v>1918-12-31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">sourceDB_AUSystemsDicti!E50</f>
@@ -6729,7 +6737,7 @@
         <v>2020-01-01</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7699,15 +7707,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1182"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.29"/>
@@ -7722,16 +7730,16 @@
         <v>273</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7757,143 +7765,143 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7901,158 +7909,150 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="12"/>
       <c r="D20" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E22" s="9" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>17</v>
@@ -8060,31 +8060,27 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="12"/>
       <c r="D25" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E25" s="13" t="n">
         <v>30</v>
@@ -8092,227 +8088,223 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="12"/>
       <c r="D27" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -8337,15 +8329,11 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="12"/>
       <c r="D41" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E41" s="16" t="n">
         <v>45</v>
@@ -8353,13 +8341,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -8387,13 +8375,13 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -8421,13 +8409,13 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -8455,19 +8443,19 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -8492,18 +8480,14 @@
       <c r="Z45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>381</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="18"/>
       <c r="D46" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -8529,19 +8513,19 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -8566,15 +8550,11 @@
       <c r="Z47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>381</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="18"/>
       <c r="D48" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E48" s="16" t="n">
         <v>44</v>
@@ -8603,13 +8583,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -8637,13 +8617,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -8671,13 +8651,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -8705,19 +8685,19 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -8742,18 +8722,14 @@
       <c r="Z52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>381</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="18"/>
       <c r="D53" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -8779,19 +8755,19 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -8816,15 +8792,11 @@
       <c r="Z54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="12"/>
       <c r="D55" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E55" s="13" t="n">
         <v>44</v>
@@ -8832,240 +8804,228 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="18"/>
       <c r="D63" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="18"/>
       <c r="D66" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="18"/>
       <c r="D69" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -9091,19 +9051,19 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
@@ -9129,191 +9089,187 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="12"/>
       <c r="D86" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E86" s="9" t="n">
         <v>2</v>
@@ -9321,944 +9277,932 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="18"/>
       <c r="D94" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="1"/>
       <c r="C97" s="18"/>
       <c r="D97" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="1"/>
       <c r="C100" s="12"/>
       <c r="D100" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>464</v>
+        <v>383</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C109" s="12" t="s">
         <v>470</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>472</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>473</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>472</v>
+        <v>38</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>475</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="D115" s="9"/>
+        <v>470</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>477</v>
+      </c>
       <c r="E115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>476</v>
+        <v>470</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="E116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>477</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D117" s="9"/>
       <c r="E117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>91</v>
+        <v>470</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>485</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>485</v>
+        <v>470</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>487</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>487</v>
+        <v>470</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>488</v>
+        <v>470</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>489</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>489</v>
+        <v>470</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+        <v>490</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>425</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>491</v>
+        <v>470</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>492</v>
+        <v>470</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>493</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>495</v>
+        <v>470</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>496</v>
+        <v>470</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>497</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>497</v>
+        <v>470</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>498</v>
+        <v>225</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>225</v>
+        <v>499</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>499</v>
+        <v>470</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>500</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>500</v>
+        <v>470</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E150" s="13" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151" s="13" t="n">
-        <v>115</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>501</v>
+        <v>470</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>502</v>
+        <v>261</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
+        <v>265</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>503</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>504</v>
@@ -10271,7 +10215,7 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>504</v>
@@ -10284,7 +10228,7 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>504</v>
@@ -10297,7 +10241,7 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>504</v>
@@ -10310,7 +10254,7 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>504</v>
@@ -10323,7 +10267,7 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>504</v>
@@ -10336,7 +10280,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>504</v>
@@ -10349,7 +10293,7 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>504</v>
@@ -10362,7 +10306,7 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>504</v>
@@ -10375,7 +10319,7 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>504</v>
@@ -10388,7 +10332,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>504</v>
@@ -10401,7 +10345,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>504</v>
@@ -10414,143 +10358,143 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>504</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>504</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>505</v>
+        <v>330</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>508</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C171" s="20" t="s">
-        <v>508</v>
+      <c r="C171" s="14" t="s">
+        <v>509</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="14" t="s">
-        <v>509</v>
+      <c r="C172" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
+      <c r="M172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C173" s="20" t="s">
-        <v>510</v>
+      <c r="C173" s="21" t="s">
+        <v>511</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
-      <c r="M173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C174" s="20" t="s">
-        <v>511</v>
+      <c r="C174" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C175" s="20" t="s">
-        <v>512</v>
+      <c r="C175" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C176" s="20" t="s">
-        <v>510</v>
+      <c r="C176" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>512</v>
+      <c r="C177" s="21" t="s">
+        <v>513</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="21" t="s">
         <v>513</v>
       </c>
       <c r="D178" s="9"/>
@@ -10558,368 +10502,366 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C179" s="20" t="s">
-        <v>513</v>
+      <c r="C179" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C180" s="20" t="s">
-        <v>510</v>
+      <c r="C180" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C181" s="20" t="s">
-        <v>512</v>
+      <c r="C181" s="21" t="s">
+        <v>513</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C182" s="20" t="s">
-        <v>513</v>
+      <c r="C182" s="21" t="s">
+        <v>514</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>516</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C184" s="21" t="s">
-        <v>516</v>
+      <c r="C184" s="23" t="s">
+        <v>517</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>515</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C186" s="21" t="s">
-        <v>518</v>
+      <c r="C186" s="22" t="s">
+        <v>519</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C187" s="21" t="s">
-        <v>519</v>
+      <c r="C187" s="22" t="s">
+        <v>520</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C188" s="21" t="s">
-        <v>520</v>
+      <c r="C188" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>521</v>
+      <c r="C189" s="22" t="s">
+        <v>522</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>522</v>
+      <c r="C190" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C191" s="21" t="s">
-        <v>523</v>
+      <c r="C191" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C192" s="21" t="s">
-        <v>524</v>
+      <c r="C192" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>525</v>
+      <c r="C193" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="21" t="s">
-        <v>526</v>
+      <c r="C194" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C195" s="23" t="s">
-        <v>527</v>
+      <c r="C195" s="22" t="s">
+        <v>528</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-      <c r="X195" s="1"/>
-      <c r="Y195" s="1"/>
-      <c r="Z195" s="1"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C196" s="21" t="s">
-        <v>528</v>
+      <c r="C196" s="22" t="s">
+        <v>529</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C197" s="21" t="s">
-        <v>529</v>
+      <c r="C197" s="22" t="s">
+        <v>530</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C198" s="21" t="s">
-        <v>530</v>
+      <c r="C198" s="22" t="s">
+        <v>531</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>531</v>
+      <c r="C199" s="22" t="s">
+        <v>532</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>532</v>
+      <c r="C200" s="22" t="s">
+        <v>533</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
+      <c r="C201" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="M201" s="27"/>
+      <c r="N201" s="27"/>
+      <c r="O201" s="27"/>
+      <c r="P201" s="27"/>
+      <c r="Q201" s="27"/>
+      <c r="R201" s="27"/>
+      <c r="S201" s="27"/>
+      <c r="T201" s="27"/>
+      <c r="U201" s="27"/>
+      <c r="V201" s="27"/>
+      <c r="W201" s="27"/>
+      <c r="X201" s="27"/>
+      <c r="Y201" s="27"/>
+      <c r="Z201" s="27"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C202" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D202" s="25" t="s">
+      <c r="C202" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="E202" s="25"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="26"/>
-      <c r="J202" s="26"/>
-      <c r="K202" s="26"/>
-      <c r="L202" s="26"/>
-      <c r="M202" s="26"/>
-      <c r="N202" s="26"/>
-      <c r="O202" s="26"/>
-      <c r="P202" s="26"/>
-      <c r="Q202" s="26"/>
-      <c r="R202" s="26"/>
-      <c r="S202" s="26"/>
-      <c r="T202" s="26"/>
-      <c r="U202" s="26"/>
-      <c r="V202" s="26"/>
-      <c r="W202" s="26"/>
-      <c r="X202" s="26"/>
-      <c r="Y202" s="26"/>
-      <c r="Z202" s="26"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="22" t="s">
         <v>536</v>
       </c>
       <c r="D203" s="9"/>
@@ -10927,12 +10869,12 @@
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="22" t="s">
         <v>537</v>
       </c>
       <c r="D204" s="9"/>
@@ -10940,12 +10882,12 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="22" t="s">
         <v>538</v>
       </c>
       <c r="D205" s="9"/>
@@ -10953,12 +10895,12 @@
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="22" t="s">
         <v>539</v>
       </c>
       <c r="D206" s="9"/>
@@ -10966,12 +10908,12 @@
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="22" t="s">
         <v>540</v>
       </c>
       <c r="D207" s="9"/>
@@ -10979,12 +10921,12 @@
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="22" t="s">
         <v>541</v>
       </c>
       <c r="D208" s="9"/>
@@ -10992,12 +10934,12 @@
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="22" t="s">
         <v>542</v>
       </c>
       <c r="D209" s="9"/>
@@ -11005,12 +10947,12 @@
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="22" t="s">
         <v>543</v>
       </c>
       <c r="D210" s="9"/>
@@ -11018,12 +10960,12 @@
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="22" t="s">
         <v>544</v>
       </c>
       <c r="D211" s="9"/>
@@ -11031,12 +10973,12 @@
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="22" t="s">
         <v>545</v>
       </c>
       <c r="D212" s="9"/>
@@ -11044,12 +10986,12 @@
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="22" t="s">
         <v>546</v>
       </c>
       <c r="D213" s="9"/>
@@ -11057,12 +10999,12 @@
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="22" t="s">
         <v>547</v>
       </c>
       <c r="D214" s="9"/>
@@ -11070,12 +11012,12 @@
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="23" t="s">
         <v>548</v>
       </c>
       <c r="D215" s="9"/>
@@ -11083,7 +11025,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>515</v>
@@ -11096,12 +11038,12 @@
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="22" t="s">
         <v>550</v>
       </c>
       <c r="D217" s="9"/>
@@ -11109,12 +11051,12 @@
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="22" t="s">
         <v>551</v>
       </c>
       <c r="D218" s="9"/>
@@ -11122,12 +11064,12 @@
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="22" t="s">
         <v>552</v>
       </c>
       <c r="D219" s="9"/>
@@ -11135,12 +11077,12 @@
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="22" t="s">
         <v>553</v>
       </c>
       <c r="D220" s="9"/>
@@ -11148,12 +11090,12 @@
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="22" t="s">
         <v>554</v>
       </c>
       <c r="D221" s="9"/>
@@ -11161,12 +11103,12 @@
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="22" t="s">
         <v>555</v>
       </c>
       <c r="D222" s="9"/>
@@ -11174,12 +11116,12 @@
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C223" s="21" t="s">
+      <c r="C223" s="22" t="s">
         <v>556</v>
       </c>
       <c r="D223" s="9"/>
@@ -11187,12 +11129,12 @@
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="22" t="s">
         <v>557</v>
       </c>
       <c r="D224" s="9"/>
@@ -11200,12 +11142,12 @@
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="22" t="s">
         <v>558</v>
       </c>
       <c r="D225" s="9"/>
@@ -11213,12 +11155,12 @@
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C226" s="21" t="s">
+      <c r="C226" s="22" t="s">
         <v>559</v>
       </c>
       <c r="D226" s="9"/>
@@ -11226,12 +11168,12 @@
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C227" s="21" t="s">
+      <c r="C227" s="22" t="s">
         <v>560</v>
       </c>
       <c r="D227" s="9"/>
@@ -11239,12 +11181,12 @@
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="22" t="s">
         <v>561</v>
       </c>
       <c r="D228" s="9"/>
@@ -11252,12 +11194,12 @@
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="22" t="s">
         <v>562</v>
       </c>
       <c r="D229" s="9"/>
@@ -11265,27 +11207,19 @@
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="22" t="s">
         <v>563</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C231" s="21" t="s">
-        <v>564</v>
-      </c>
+      <c r="C231" s="12"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
     </row>
@@ -16039,61 +15973,57 @@
       <c r="D1181" s="9"/>
       <c r="E1181" s="9"/>
     </row>
-    <row r="1182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1182" s="12"/>
-      <c r="D1182" s="9"/>
-      <c r="E1182" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C184" r:id="rId1" location="administrative_system_1" display="http://purl.org/ontohgis#administrative_system_1"/>
-    <hyperlink ref="C185" r:id="rId2" location="administrative_system_2" display="http://purl.org/ontohgis#administrative_system_2"/>
-    <hyperlink ref="C186" r:id="rId3" location="administrative_system_3" display="http://purl.org/ontohgis#administrative_system_3"/>
-    <hyperlink ref="C187" r:id="rId4" location="administrative_system_4" display="http://purl.org/ontohgis#administrative_system_4"/>
-    <hyperlink ref="C188" r:id="rId5" location="administrative_system_5" display="http://purl.org/ontohgis#administrative_system_5"/>
-    <hyperlink ref="C189" r:id="rId6" location="administrative_system_6" display="http://purl.org/ontohgis#administrative_system_6"/>
-    <hyperlink ref="C190" r:id="rId7" location="administrative_system_7" display="http://purl.org/ontohgis#administrative_system_7"/>
-    <hyperlink ref="C191" r:id="rId8" location="administrative_system_8" display="http://purl.org/ontohgis#administrative_system_8"/>
-    <hyperlink ref="C192" r:id="rId9" location="administrative_system_9" display="http://purl.org/ontohgis#administrative_system_9"/>
-    <hyperlink ref="C193" r:id="rId10" location="administrative_system_10" display="http://purl.org/ontohgis#administrative_system_10"/>
-    <hyperlink ref="C194" r:id="rId11" location="administrative_system_11" display="http://purl.org/ontohgis#administrative_system_11"/>
-    <hyperlink ref="C195" r:id="rId12" location="administrative_system_12" display="http://purl.org/ontohgis#administrative_system_12"/>
-    <hyperlink ref="C196" r:id="rId13" location="administrative_system_13" display="http://purl.org/ontohgis#administrative_system_13"/>
-    <hyperlink ref="C197" r:id="rId14" location="administrative_system_14" display="http://purl.org/ontohgis#administrative_system_14"/>
-    <hyperlink ref="C198" r:id="rId15" location="administrative_system_15" display="http://purl.org/ontohgis#administrative_system_15"/>
-    <hyperlink ref="C199" r:id="rId16" location="administrative_system_16" display="http://purl.org/ontohgis#administrative_system_16"/>
-    <hyperlink ref="C200" r:id="rId17" location="administrative_system_17" display="http://purl.org/ontohgis#administrative_system_17"/>
-    <hyperlink ref="C201" r:id="rId18" location="administrative_system_18" display="http://purl.org/ontohgis#administrative_system_18"/>
-    <hyperlink ref="C202" r:id="rId19" location="administrative_system_19" display="http://purl.org/ontohgis#administrative_system_19"/>
-    <hyperlink ref="C203" r:id="rId20" location="administrative_system_20" display="http://purl.org/ontohgis#administrative_system_20"/>
-    <hyperlink ref="C204" r:id="rId21" location="administrative_system_21" display="http://purl.org/ontohgis#administrative_system_21"/>
-    <hyperlink ref="C205" r:id="rId22" location="administrative_system_22" display="http://purl.org/ontohgis#administrative_system_22"/>
-    <hyperlink ref="C206" r:id="rId23" location="administrative_system_23" display="http://purl.org/ontohgis#administrative_system_23"/>
-    <hyperlink ref="C207" r:id="rId24" location="administrative_system_24" display="http://purl.org/ontohgis#administrative_system_24"/>
-    <hyperlink ref="C208" r:id="rId25" location="administrative_system_25" display="http://purl.org/ontohgis#administrative_system_25"/>
-    <hyperlink ref="C209" r:id="rId26" location="administrative_system_26" display="http://purl.org/ontohgis#administrative_system_26"/>
-    <hyperlink ref="C210" r:id="rId27" location="administrative_system_27" display="http://purl.org/ontohgis#administrative_system_27"/>
-    <hyperlink ref="C211" r:id="rId28" location="administrative_system_28" display="http://purl.org/ontohgis#administrative_system_28"/>
-    <hyperlink ref="C212" r:id="rId29" location="administrative_system_29" display="http://purl.org/ontohgis#administrative_system_29"/>
-    <hyperlink ref="C213" r:id="rId30" location="administrative_system_30" display="http://purl.org/ontohgis#administrative_system_30"/>
-    <hyperlink ref="C214" r:id="rId31" location="administrative_system_31" display="http://purl.org/ontohgis#administrative_system_31"/>
-    <hyperlink ref="C215" r:id="rId32" location="administrative_system_32" display="http://purl.org/ontohgis#administrative_system_32"/>
-    <hyperlink ref="C216" r:id="rId33" location="administrative_system_33" display="http://purl.org/ontohgis#administrative_system_33"/>
-    <hyperlink ref="C217" r:id="rId34" location="administrative_system_34" display="http://purl.org/ontohgis#administrative_system_34"/>
-    <hyperlink ref="C218" r:id="rId35" location="administrative_system_35" display="http://purl.org/ontohgis#administrative_system_35"/>
-    <hyperlink ref="C219" r:id="rId36" location="administrative_system_36" display="http://purl.org/ontohgis#administrative_system_36"/>
-    <hyperlink ref="C220" r:id="rId37" location="administrative_system_37" display="http://purl.org/ontohgis#administrative_system_37"/>
-    <hyperlink ref="C221" r:id="rId38" location="administrative_system_38" display="http://purl.org/ontohgis#administrative_system_38"/>
-    <hyperlink ref="C222" r:id="rId39" location="administrative_system_39" display="http://purl.org/ontohgis#administrative_system_39"/>
-    <hyperlink ref="C223" r:id="rId40" location="administrative_system_40" display="http://purl.org/ontohgis#administrative_system_40"/>
-    <hyperlink ref="C224" r:id="rId41" location="administrative_system_41" display="http://purl.org/ontohgis#administrative_system_41"/>
-    <hyperlink ref="C225" r:id="rId42" location="administrative_system_42" display="http://purl.org/ontohgis#administrative_system_42"/>
-    <hyperlink ref="C226" r:id="rId43" location="administrative_system_43" display="http://purl.org/ontohgis#administrative_system_43"/>
-    <hyperlink ref="C227" r:id="rId44" location="administrative_system_44" display="http://purl.org/ontohgis#administrative_system_44"/>
-    <hyperlink ref="C228" r:id="rId45" location="administrative_system_45" display="http://purl.org/ontohgis#administrative_system_45"/>
-    <hyperlink ref="C229" r:id="rId46" location="administrative_system_46" display="http://purl.org/ontohgis#administrative_system_46"/>
-    <hyperlink ref="C230" r:id="rId47" location="administrative_system_47" display="http://purl.org/ontohgis#administrative_system_47"/>
-    <hyperlink ref="C231" r:id="rId48" location="administrative_system_48" display="http://purl.org/ontohgis#administrative_system_48"/>
+    <hyperlink ref="C183" r:id="rId1" location="administrative_system_1" display="http://purl.org/ontohgis#administrative_system_1"/>
+    <hyperlink ref="C184" r:id="rId2" location="administrative_system_2" display="http://purl.org/ontohgis#administrative_system_2"/>
+    <hyperlink ref="C185" r:id="rId3" location="administrative_system_3" display="http://purl.org/ontohgis#administrative_system_3"/>
+    <hyperlink ref="C186" r:id="rId4" location="administrative_system_4" display="http://purl.org/ontohgis#administrative_system_4"/>
+    <hyperlink ref="C187" r:id="rId5" location="administrative_system_5" display="http://purl.org/ontohgis#administrative_system_5"/>
+    <hyperlink ref="C188" r:id="rId6" location="administrative_system_6" display="http://purl.org/ontohgis#administrative_system_6"/>
+    <hyperlink ref="C189" r:id="rId7" location="administrative_system_7" display="http://purl.org/ontohgis#administrative_system_7"/>
+    <hyperlink ref="C190" r:id="rId8" location="administrative_system_8" display="http://purl.org/ontohgis#administrative_system_8"/>
+    <hyperlink ref="C191" r:id="rId9" location="administrative_system_9" display="http://purl.org/ontohgis#administrative_system_9"/>
+    <hyperlink ref="C192" r:id="rId10" location="administrative_system_10" display="http://purl.org/ontohgis#administrative_system_10"/>
+    <hyperlink ref="C193" r:id="rId11" location="administrative_system_11" display="http://purl.org/ontohgis#administrative_system_11"/>
+    <hyperlink ref="C194" r:id="rId12" location="administrative_system_12" display="http://purl.org/ontohgis#administrative_system_12"/>
+    <hyperlink ref="C195" r:id="rId13" location="administrative_system_13" display="http://purl.org/ontohgis#administrative_system_13"/>
+    <hyperlink ref="C196" r:id="rId14" location="administrative_system_14" display="http://purl.org/ontohgis#administrative_system_14"/>
+    <hyperlink ref="C197" r:id="rId15" location="administrative_system_15" display="http://purl.org/ontohgis#administrative_system_15"/>
+    <hyperlink ref="C198" r:id="rId16" location="administrative_system_16" display="http://purl.org/ontohgis#administrative_system_16"/>
+    <hyperlink ref="C199" r:id="rId17" location="administrative_system_17" display="http://purl.org/ontohgis#administrative_system_17"/>
+    <hyperlink ref="C200" r:id="rId18" location="administrative_system_18" display="http://purl.org/ontohgis#administrative_system_18"/>
+    <hyperlink ref="C201" r:id="rId19" location="administrative_system_19" display="http://purl.org/ontohgis#administrative_system_19"/>
+    <hyperlink ref="C202" r:id="rId20" location="administrative_system_20" display="http://purl.org/ontohgis#administrative_system_20"/>
+    <hyperlink ref="C203" r:id="rId21" location="administrative_system_21" display="http://purl.org/ontohgis#administrative_system_21"/>
+    <hyperlink ref="C204" r:id="rId22" location="administrative_system_22" display="http://purl.org/ontohgis#administrative_system_22"/>
+    <hyperlink ref="C205" r:id="rId23" location="administrative_system_23" display="http://purl.org/ontohgis#administrative_system_23"/>
+    <hyperlink ref="C206" r:id="rId24" location="administrative_system_24" display="http://purl.org/ontohgis#administrative_system_24"/>
+    <hyperlink ref="C207" r:id="rId25" location="administrative_system_25" display="http://purl.org/ontohgis#administrative_system_25"/>
+    <hyperlink ref="C208" r:id="rId26" location="administrative_system_26" display="http://purl.org/ontohgis#administrative_system_26"/>
+    <hyperlink ref="C209" r:id="rId27" location="administrative_system_27" display="http://purl.org/ontohgis#administrative_system_27"/>
+    <hyperlink ref="C210" r:id="rId28" location="administrative_system_28" display="http://purl.org/ontohgis#administrative_system_28"/>
+    <hyperlink ref="C211" r:id="rId29" location="administrative_system_29" display="http://purl.org/ontohgis#administrative_system_29"/>
+    <hyperlink ref="C212" r:id="rId30" location="administrative_system_30" display="http://purl.org/ontohgis#administrative_system_30"/>
+    <hyperlink ref="C213" r:id="rId31" location="administrative_system_31" display="http://purl.org/ontohgis#administrative_system_31"/>
+    <hyperlink ref="C214" r:id="rId32" location="administrative_system_32" display="http://purl.org/ontohgis#administrative_system_32"/>
+    <hyperlink ref="C215" r:id="rId33" location="administrative_system_33" display="http://purl.org/ontohgis#administrative_system_33"/>
+    <hyperlink ref="C216" r:id="rId34" location="administrative_system_34" display="http://purl.org/ontohgis#administrative_system_34"/>
+    <hyperlink ref="C217" r:id="rId35" location="administrative_system_35" display="http://purl.org/ontohgis#administrative_system_35"/>
+    <hyperlink ref="C218" r:id="rId36" location="administrative_system_36" display="http://purl.org/ontohgis#administrative_system_36"/>
+    <hyperlink ref="C219" r:id="rId37" location="administrative_system_37" display="http://purl.org/ontohgis#administrative_system_37"/>
+    <hyperlink ref="C220" r:id="rId38" location="administrative_system_38" display="http://purl.org/ontohgis#administrative_system_38"/>
+    <hyperlink ref="C221" r:id="rId39" location="administrative_system_39" display="http://purl.org/ontohgis#administrative_system_39"/>
+    <hyperlink ref="C222" r:id="rId40" location="administrative_system_40" display="http://purl.org/ontohgis#administrative_system_40"/>
+    <hyperlink ref="C223" r:id="rId41" location="administrative_system_41" display="http://purl.org/ontohgis#administrative_system_41"/>
+    <hyperlink ref="C224" r:id="rId42" location="administrative_system_42" display="http://purl.org/ontohgis#administrative_system_42"/>
+    <hyperlink ref="C225" r:id="rId43" location="administrative_system_43" display="http://purl.org/ontohgis#administrative_system_43"/>
+    <hyperlink ref="C226" r:id="rId44" location="administrative_system_44" display="http://purl.org/ontohgis#administrative_system_44"/>
+    <hyperlink ref="C227" r:id="rId45" location="administrative_system_45" display="http://purl.org/ontohgis#administrative_system_45"/>
+    <hyperlink ref="C228" r:id="rId46" location="administrative_system_46" display="http://purl.org/ontohgis#administrative_system_46"/>
+    <hyperlink ref="C229" r:id="rId47" location="administrative_system_47" display="http://purl.org/ontohgis#administrative_system_47"/>
+    <hyperlink ref="C230" r:id="rId48" location="administrative_system_48" display="http://purl.org/ontohgis#administrative_system_48"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16110,15 +16040,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A1:C1 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.14"/>
@@ -16128,10 +16058,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -16159,311 +16089,311 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>567</v>
+        <v>383</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>568</v>
+        <v>383</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>569</v>
+        <v>383</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>570</v>
+        <v>383</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>571</v>
+        <v>383</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>572</v>
+        <v>383</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>573</v>
+        <v>383</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>574</v>
+        <v>383</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>575</v>
+        <v>383</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>576</v>
+        <v>383</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>579</v>
+        <v>383</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>580</v>
+        <v>383</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>581</v>
+        <v>383</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>583</v>
+        <v>383</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>584</v>
+        <v>383</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>585</v>
+        <v>383</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>586</v>
+        <v>383</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>588</v>
+        <v>383</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>589</v>
+        <v>383</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>590</v>
+        <v>383</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>592</v>
+        <v>383</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>593</v>
+        <v>383</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>594</v>
+        <v>383</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>595</v>
+        <v>383</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>598</v>
+        <v>383</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>599</v>
+        <v>383</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>600</v>
+        <v>383</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>464</v>
+        <v>383</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B38" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B39" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>603</v>
@@ -16471,55 +16401,55 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B42" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B43" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B44" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B45" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B46" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>610</v>
@@ -16527,7 +16457,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>611</v>
@@ -16535,63 +16465,63 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B49" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B50" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B51" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B52" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B53" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B54" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B55" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>619</v>
@@ -16599,15 +16529,15 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B57" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>621</v>
@@ -16615,7 +16545,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>622</v>
@@ -16623,15 +16553,15 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B60" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>624</v>
@@ -16639,23 +16569,23 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B62" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B63" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>261</v>
@@ -16663,7 +16593,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>496</v>
@@ -16671,7 +16601,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>499</v>
@@ -16679,15 +16609,15 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B67" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>484</v>
@@ -16695,7 +16625,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>498</v>
@@ -16703,15 +16633,15 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B70" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>482</v>
@@ -16719,7 +16649,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>249</v>
@@ -16727,7 +16657,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>483</v>
@@ -16735,7 +16665,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>480</v>
@@ -16743,15 +16673,15 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B75" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>243</v>
@@ -16759,7 +16689,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>91</v>
@@ -16767,31 +16697,31 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B78" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B79" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>490</v>
@@ -16799,7 +16729,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>486</v>
@@ -16807,23 +16737,23 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>150</v>
@@ -16831,7 +16761,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>488</v>
@@ -16839,7 +16769,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>225</v>
@@ -16847,7 +16777,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>492</v>
@@ -16855,7 +16785,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>76</v>
@@ -16863,31 +16793,31 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B90" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="28" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>502</v>
@@ -16895,31 +16825,31 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B95" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B96" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96" s="28" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>81</v>
@@ -16927,7 +16857,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>265</v>
@@ -16935,7 +16865,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>481</v>
@@ -16943,23 +16873,23 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B100" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" s="28" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>38</v>
@@ -16967,7 +16897,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>119</v>
@@ -16975,18 +16905,18 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17063,7 +16993,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>635</v>
@@ -17071,7 +17001,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>636</v>
@@ -17079,62 +17009,62 @@
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="27"/>
+      <c r="B119" s="28"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="27"/>
+      <c r="B121" s="28"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="27"/>
+      <c r="B125" s="28"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="27"/>
+      <c r="B126" s="28"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="20"/>
+      <c r="B129" s="21"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="20"/>
+      <c r="B130" s="21"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="20"/>
+      <c r="B131" s="21"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="20"/>
+      <c r="B132" s="21"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="20"/>
+      <c r="B133" s="21"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="20"/>
+      <c r="B140" s="21"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="20"/>
+      <c r="B141" s="21"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="20"/>
+      <c r="B143" s="21"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="20"/>
+      <c r="B144" s="21"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="27"/>
+      <c r="B145" s="28"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="27"/>
+      <c r="B147" s="28"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="27"/>
+      <c r="B148" s="28"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17994,10 +17924,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.93"/>
   </cols>
@@ -18046,34 +17976,34 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A1:C1 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18093,21 +18023,21 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/06_administrative_systems.xlsx
+++ b/data/06_administrative_systems.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="647">
   <si>
     <t xml:space="preserve">Identifiers</t>
   </si>
@@ -1715,6 +1715,9 @@
     <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_42</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Poland (1815-1837)</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://purl.org/ontohgis#administrative_system_43</t>
   </si>
   <si>
@@ -1988,7 +1991,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2040,12 +2043,6 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -2149,7 +2146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,12 +2227,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2246,11 +2243,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2266,11 +2259,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2383,7 +2376,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.71"/>
@@ -5579,7 +5572,7 @@
       <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.86"/>
@@ -7710,12 +7703,12 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A227" activeCellId="0" sqref="A227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.29"/>
@@ -10389,7 +10382,7 @@
       <c r="B170" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="20" t="s">
         <v>508</v>
       </c>
       <c r="D170" s="9"/>
@@ -10415,7 +10408,7 @@
       <c r="B172" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>510</v>
       </c>
       <c r="D172" s="9"/>
@@ -10429,7 +10422,7 @@
       <c r="B173" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="20" t="s">
         <v>511</v>
       </c>
       <c r="D173" s="9"/>
@@ -10442,7 +10435,7 @@
       <c r="B174" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="20" t="s">
         <v>512</v>
       </c>
       <c r="D174" s="9"/>
@@ -10455,7 +10448,7 @@
       <c r="B175" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="20" t="s">
         <v>510</v>
       </c>
       <c r="D175" s="9"/>
@@ -10468,7 +10461,7 @@
       <c r="B176" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="20" t="s">
         <v>512</v>
       </c>
       <c r="D176" s="9"/>
@@ -10481,7 +10474,7 @@
       <c r="B177" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="20" t="s">
         <v>513</v>
       </c>
       <c r="D177" s="9"/>
@@ -10494,7 +10487,7 @@
       <c r="B178" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="20" t="s">
         <v>513</v>
       </c>
       <c r="D178" s="9"/>
@@ -10507,7 +10500,7 @@
       <c r="B179" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="20" t="s">
         <v>510</v>
       </c>
       <c r="D179" s="9"/>
@@ -10520,7 +10513,7 @@
       <c r="B180" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="20" t="s">
         <v>512</v>
       </c>
       <c r="D180" s="9"/>
@@ -10533,7 +10526,7 @@
       <c r="B181" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="20" t="s">
         <v>513</v>
       </c>
       <c r="D181" s="9"/>
@@ -10546,7 +10539,7 @@
       <c r="B182" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="20" t="s">
         <v>514</v>
       </c>
       <c r="D182" s="9"/>
@@ -10559,7 +10552,7 @@
       <c r="B183" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="21" t="s">
         <v>516</v>
       </c>
       <c r="D183" s="9"/>
@@ -10572,7 +10565,7 @@
       <c r="B184" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="22" t="s">
         <v>517</v>
       </c>
       <c r="D184" s="9"/>
@@ -10585,7 +10578,7 @@
       <c r="B185" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="21" t="s">
         <v>518</v>
       </c>
       <c r="D185" s="9"/>
@@ -10598,7 +10591,7 @@
       <c r="B186" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="21" t="s">
         <v>519</v>
       </c>
       <c r="D186" s="9"/>
@@ -10611,7 +10604,7 @@
       <c r="B187" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="21" t="s">
         <v>520</v>
       </c>
       <c r="D187" s="9"/>
@@ -10624,7 +10617,7 @@
       <c r="B188" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="21" t="s">
         <v>521</v>
       </c>
       <c r="D188" s="9"/>
@@ -10637,7 +10630,7 @@
       <c r="B189" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D189" s="9"/>
@@ -10650,7 +10643,7 @@
       <c r="B190" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="21" t="s">
         <v>523</v>
       </c>
       <c r="D190" s="9"/>
@@ -10663,7 +10656,7 @@
       <c r="B191" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="21" t="s">
         <v>524</v>
       </c>
       <c r="D191" s="9"/>
@@ -10676,7 +10669,7 @@
       <c r="B192" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="21" t="s">
         <v>525</v>
       </c>
       <c r="D192" s="9"/>
@@ -10689,7 +10682,7 @@
       <c r="B193" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="21" t="s">
         <v>526</v>
       </c>
       <c r="D193" s="9"/>
@@ -10702,7 +10695,7 @@
       <c r="B194" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="23" t="s">
         <v>527</v>
       </c>
       <c r="D194" s="9"/>
@@ -10736,7 +10729,7 @@
       <c r="B195" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="21" t="s">
         <v>528</v>
       </c>
       <c r="D195" s="9"/>
@@ -10749,7 +10742,7 @@
       <c r="B196" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="21" t="s">
         <v>529</v>
       </c>
       <c r="D196" s="9"/>
@@ -10762,7 +10755,7 @@
       <c r="B197" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="21" t="s">
         <v>530</v>
       </c>
       <c r="D197" s="9"/>
@@ -10775,7 +10768,7 @@
       <c r="B198" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
         <v>531</v>
       </c>
       <c r="D198" s="9"/>
@@ -10788,7 +10781,7 @@
       <c r="B199" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="21" t="s">
         <v>532</v>
       </c>
       <c r="D199" s="9"/>
@@ -10801,7 +10794,7 @@
       <c r="B200" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="21" t="s">
         <v>533</v>
       </c>
       <c r="D200" s="9"/>
@@ -10814,32 +10807,32 @@
       <c r="B201" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
-      <c r="M201" s="27"/>
-      <c r="N201" s="27"/>
-      <c r="O201" s="27"/>
-      <c r="P201" s="27"/>
-      <c r="Q201" s="27"/>
-      <c r="R201" s="27"/>
-      <c r="S201" s="27"/>
-      <c r="T201" s="27"/>
-      <c r="U201" s="27"/>
-      <c r="V201" s="27"/>
-      <c r="W201" s="27"/>
-      <c r="X201" s="27"/>
-      <c r="Y201" s="27"/>
-      <c r="Z201" s="27"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
+      <c r="J201" s="26"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="26"/>
+      <c r="M201" s="26"/>
+      <c r="N201" s="26"/>
+      <c r="O201" s="26"/>
+      <c r="P201" s="26"/>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="S201" s="26"/>
+      <c r="T201" s="26"/>
+      <c r="U201" s="26"/>
+      <c r="V201" s="26"/>
+      <c r="W201" s="26"/>
+      <c r="X201" s="26"/>
+      <c r="Y201" s="26"/>
+      <c r="Z201" s="26"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
@@ -10848,7 +10841,7 @@
       <c r="B202" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="21" t="s">
         <v>535</v>
       </c>
       <c r="D202" s="9"/>
@@ -10861,7 +10854,7 @@
       <c r="B203" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="21" t="s">
         <v>536</v>
       </c>
       <c r="D203" s="9"/>
@@ -10874,7 +10867,7 @@
       <c r="B204" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="21" t="s">
         <v>537</v>
       </c>
       <c r="D204" s="9"/>
@@ -10887,7 +10880,7 @@
       <c r="B205" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>538</v>
       </c>
       <c r="D205" s="9"/>
@@ -10900,7 +10893,7 @@
       <c r="B206" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C206" s="22" t="s">
+      <c r="C206" s="21" t="s">
         <v>539</v>
       </c>
       <c r="D206" s="9"/>
@@ -10913,7 +10906,7 @@
       <c r="B207" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="21" t="s">
         <v>540</v>
       </c>
       <c r="D207" s="9"/>
@@ -10926,7 +10919,7 @@
       <c r="B208" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="21" t="s">
         <v>541</v>
       </c>
       <c r="D208" s="9"/>
@@ -10939,7 +10932,7 @@
       <c r="B209" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="21" t="s">
         <v>542</v>
       </c>
       <c r="D209" s="9"/>
@@ -10952,7 +10945,7 @@
       <c r="B210" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="21" t="s">
         <v>543</v>
       </c>
       <c r="D210" s="9"/>
@@ -10965,7 +10958,7 @@
       <c r="B211" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="21" t="s">
         <v>544</v>
       </c>
       <c r="D211" s="9"/>
@@ -10978,7 +10971,7 @@
       <c r="B212" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="21" t="s">
         <v>545</v>
       </c>
       <c r="D212" s="9"/>
@@ -10991,7 +10984,7 @@
       <c r="B213" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="21" t="s">
         <v>546</v>
       </c>
       <c r="D213" s="9"/>
@@ -11004,7 +10997,7 @@
       <c r="B214" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="21" t="s">
         <v>547</v>
       </c>
       <c r="D214" s="9"/>
@@ -11017,7 +11010,7 @@
       <c r="B215" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="C215" s="22" t="s">
         <v>548</v>
       </c>
       <c r="D215" s="9"/>
@@ -11030,7 +11023,7 @@
       <c r="B216" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="21" t="s">
         <v>549</v>
       </c>
       <c r="D216" s="9"/>
@@ -11043,7 +11036,7 @@
       <c r="B217" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C217" s="22" t="s">
+      <c r="C217" s="21" t="s">
         <v>550</v>
       </c>
       <c r="D217" s="9"/>
@@ -11056,7 +11049,7 @@
       <c r="B218" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="21" t="s">
         <v>551</v>
       </c>
       <c r="D218" s="9"/>
@@ -11069,7 +11062,7 @@
       <c r="B219" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="21" t="s">
         <v>552</v>
       </c>
       <c r="D219" s="9"/>
@@ -11082,7 +11075,7 @@
       <c r="B220" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C220" s="22" t="s">
+      <c r="C220" s="21" t="s">
         <v>553</v>
       </c>
       <c r="D220" s="9"/>
@@ -11095,7 +11088,7 @@
       <c r="B221" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="21" t="s">
         <v>554</v>
       </c>
       <c r="D221" s="9"/>
@@ -11108,7 +11101,7 @@
       <c r="B222" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C222" s="22" t="s">
+      <c r="C222" s="21" t="s">
         <v>555</v>
       </c>
       <c r="D222" s="9"/>
@@ -11121,7 +11114,7 @@
       <c r="B223" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C223" s="22" t="s">
+      <c r="C223" s="21" t="s">
         <v>556</v>
       </c>
       <c r="D223" s="9"/>
@@ -11134,7 +11127,7 @@
       <c r="B224" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C224" s="22" t="s">
+      <c r="C224" s="21" t="s">
         <v>557</v>
       </c>
       <c r="D224" s="9"/>
@@ -11142,13 +11135,13 @@
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C225" s="22" t="s">
-        <v>558</v>
+      <c r="C225" s="21" t="s">
+        <v>559</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -11160,8 +11153,8 @@
       <c r="B226" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C226" s="22" t="s">
-        <v>559</v>
+      <c r="C226" s="21" t="s">
+        <v>560</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -11173,8 +11166,8 @@
       <c r="B227" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C227" s="22" t="s">
-        <v>560</v>
+      <c r="C227" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -11186,8 +11179,8 @@
       <c r="B228" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C228" s="22" t="s">
-        <v>561</v>
+      <c r="C228" s="21" t="s">
+        <v>562</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -11199,8 +11192,8 @@
       <c r="B229" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>562</v>
+      <c r="C229" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -11212,8 +11205,8 @@
       <c r="B230" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C230" s="22" t="s">
-        <v>563</v>
+      <c r="C230" s="21" t="s">
+        <v>564</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -16048,7 +16041,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.14"/>
@@ -16058,10 +16051,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -16091,80 +16084,80 @@
       <c r="A2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>566</v>
+      <c r="B2" s="27" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>567</v>
+      <c r="B3" s="27" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>568</v>
+      <c r="B4" s="27" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>569</v>
+      <c r="B5" s="27" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>570</v>
+      <c r="B6" s="27" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>571</v>
+      <c r="B7" s="27" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>572</v>
+      <c r="B8" s="27" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>573</v>
+      <c r="B9" s="27" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>574</v>
+      <c r="B10" s="27" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>575</v>
+      <c r="B11" s="20" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16172,7 +16165,7 @@
         <v>383</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16180,31 +16173,31 @@
         <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>578</v>
+      <c r="B14" s="20" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>579</v>
+      <c r="B15" s="27" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>580</v>
+      <c r="B16" s="27" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16212,39 +16205,39 @@
         <v>383</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>582</v>
+      <c r="B18" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>583</v>
+      <c r="B19" s="27" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>584</v>
+      <c r="B20" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>585</v>
+      <c r="B21" s="20" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16252,31 +16245,31 @@
         <v>383</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>587</v>
+      <c r="B23" s="27" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>588</v>
+      <c r="B24" s="27" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>589</v>
+      <c r="B25" s="27" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16284,39 +16277,39 @@
         <v>383</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>591</v>
+      <c r="B27" s="27" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>592</v>
+      <c r="B28" s="20" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>593</v>
+      <c r="B29" s="27" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>594</v>
+      <c r="B30" s="20" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16324,7 +16317,7 @@
         <v>383</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16332,7 +16325,7 @@
         <v>383</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16340,55 +16333,55 @@
         <v>383</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>597</v>
+      <c r="B34" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>598</v>
+      <c r="B35" s="27" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>599</v>
+      <c r="B36" s="27" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>600</v>
+      <c r="B37" s="27" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>601</v>
+      <c r="B38" s="20" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>602</v>
+      <c r="B39" s="27" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16396,55 +16389,55 @@
         <v>383</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>604</v>
+      <c r="B41" s="20" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>605</v>
+      <c r="B42" s="27" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>606</v>
+      <c r="B43" s="27" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>607</v>
+      <c r="B44" s="27" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>608</v>
+      <c r="B45" s="27" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>609</v>
+      <c r="B46" s="27" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16452,7 +16445,7 @@
         <v>383</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16460,63 +16453,63 @@
         <v>383</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>612</v>
+      <c r="B49" s="27" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B50" s="28" t="s">
-        <v>613</v>
+      <c r="B50" s="27" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>614</v>
+      <c r="B51" s="27" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>615</v>
+      <c r="B52" s="20" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>616</v>
+      <c r="B53" s="27" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="28" t="s">
-        <v>617</v>
+      <c r="B54" s="27" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>618</v>
+      <c r="B55" s="27" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16524,15 +16517,15 @@
         <v>383</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>620</v>
+      <c r="B57" s="27" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16540,7 +16533,7 @@
         <v>383</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16548,15 +16541,15 @@
         <v>383</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>623</v>
+      <c r="B60" s="20" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16564,22 +16557,22 @@
         <v>383</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>625</v>
+      <c r="B62" s="27" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="27" t="s">
         <v>495</v>
       </c>
     </row>
@@ -16611,7 +16604,7 @@
       <c r="A67" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16635,7 +16628,7 @@
       <c r="A70" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16675,7 +16668,7 @@
       <c r="A75" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>489</v>
       </c>
     </row>
@@ -16699,7 +16692,7 @@
       <c r="A78" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16707,7 +16700,7 @@
       <c r="A79" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16715,7 +16708,7 @@
       <c r="A80" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>477</v>
       </c>
     </row>
@@ -16795,7 +16788,7 @@
       <c r="A90" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="27" t="s">
         <v>501</v>
       </c>
     </row>
@@ -16803,7 +16796,7 @@
       <c r="A91" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="27" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16811,7 +16804,7 @@
       <c r="A92" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="27" t="s">
         <v>475</v>
       </c>
     </row>
@@ -16835,7 +16828,7 @@
       <c r="A95" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="27" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16843,7 +16836,7 @@
       <c r="A96" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="27" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16875,7 +16868,7 @@
       <c r="A100" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="27" t="s">
         <v>497</v>
       </c>
     </row>
@@ -16924,7 +16917,7 @@
         <v>504</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16932,7 +16925,7 @@
         <v>504</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16940,7 +16933,7 @@
         <v>507</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16948,7 +16941,7 @@
         <v>507</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16956,7 +16949,7 @@
         <v>507</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16964,7 +16957,7 @@
         <v>507</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16972,7 +16965,7 @@
         <v>507</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16980,7 +16973,7 @@
         <v>507</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16988,7 +16981,7 @@
         <v>507</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16996,7 +16989,7 @@
         <v>379</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17004,7 +16997,7 @@
         <v>379</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17012,59 +17005,59 @@
         <v>379</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="28"/>
+      <c r="B119" s="27"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="28"/>
+      <c r="B121" s="27"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="28"/>
+      <c r="B125" s="27"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="28"/>
+      <c r="B126" s="27"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="21"/>
+      <c r="B129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="21"/>
+      <c r="B130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="21"/>
+      <c r="B131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="21"/>
+      <c r="B132" s="20"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="21"/>
+      <c r="B133" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="21"/>
+      <c r="B140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21"/>
+      <c r="B141" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="21"/>
+      <c r="B143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="21"/>
+      <c r="B144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="28"/>
+      <c r="B145" s="27"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="28"/>
+      <c r="B147" s="27"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="28"/>
+      <c r="B148" s="27"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17927,31 +17920,31 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -17979,31 +17972,31 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="G1" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18027,7 +18020,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
